--- a/ETN.xlsx
+++ b/ETN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0eb6a9f0be765fac/Pulpit/inwestycje/modele/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CC9736C5-EDC7-4927-BCDE-1F89C0FDA101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C11AC7B2-4F29-4538-9205-BBA1E1DA6B33}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{CC9736C5-EDC7-4927-BCDE-1F89C0FDA101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE735EB-4A49-4984-90D9-BDAE2C9E8759}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E0B65F3A-2957-48EE-9659-3D6847DFF316}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E0B65F3A-2957-48EE-9659-3D6847DFF316}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -555,6 +555,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -577,15 +578,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -600,9 +601,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11277600" y="300990"/>
-          <a:ext cx="5715" cy="9747885"/>
+        <a:xfrm flipH="1">
+          <a:off x="12315825" y="377190"/>
+          <a:ext cx="19050" cy="10386060"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -676,6 +677,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,21 +1002,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82F012B-C5C9-410C-AEC1-A8EF01732B69}">
   <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L1"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1022,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="16">
-        <v>330.24</v>
+        <v>335</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>67</v>
       </c>
@@ -1036,13 +1041,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>401.9</v>
+        <v>398.9</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>73</v>
       </c>
@@ -1054,13 +1059,13 @@
       </c>
       <c r="L4" s="1">
         <f>L3*L2</f>
-        <v>132723.45600000001</v>
+        <v>133631.5</v>
       </c>
       <c r="M4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -1071,14 +1076,14 @@
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>473+1969</f>
-        <v>2442</v>
+        <f>473+1521</f>
+        <v>1994</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -1088,15 +1093,15 @@
       <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="1">
-        <f>994+1+8192</f>
-        <v>9187</v>
+      <c r="L6">
+        <f>3+714+8678</f>
+        <v>9395</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>79</v>
       </c>
@@ -1108,18 +1113,18 @@
       </c>
       <c r="L7" s="1">
         <f>L4+L6-L5</f>
-        <v>139468.45600000001</v>
+        <v>141032.5</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -1132,7 +1137,7 @@
       <c r="J11" s="1"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -1145,7 +1150,7 @@
       <c r="J12" s="1"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1158,7 +1163,7 @@
       <c r="J13" s="1"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -1171,7 +1176,7 @@
       <c r="J14" s="1"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>85</v>
       </c>
@@ -1184,7 +1189,7 @@
       <c r="J15" s="1"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -1197,7 +1202,7 @@
       <c r="J16" s="1"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>SUM(C11:C16)</f>
         <v>94000</v>
@@ -1216,28 +1221,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CAC601-5CBA-4C7A-8622-DCCC35285474}">
-  <dimension ref="A1:EL90"/>
+  <dimension ref="A1:XFD90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:39 16384:16384" x14ac:dyDescent="0.25">
       <c r="C1" s="2">
         <v>44286</v>
       </c>
@@ -1284,7 +1289,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:39 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>95</v>
       </c>
@@ -1388,12 +1393,12 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="2:39" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:39 16384:16384" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="20">
-        <f t="shared" ref="C3:O3" si="0">SUM(C4:C5)</f>
+        <f t="shared" ref="C3:Q3" si="0">SUM(C4:C5)</f>
         <v>1622</v>
       </c>
       <c r="D3" s="20">
@@ -1445,35 +1450,20 @@
         <v>2690</v>
       </c>
       <c r="P3" s="20">
-        <f>O3*1.12</f>
-        <v>3012.8</v>
+        <f t="shared" si="0"/>
+        <v>2877</v>
       </c>
       <c r="Q3" s="20">
-        <f>P3*1.04</f>
-        <v>3133.3120000000004</v>
-      </c>
-      <c r="R3" s="20">
-        <f>Q3*1.02</f>
-        <v>3195.9782400000004</v>
-      </c>
-      <c r="S3" s="20">
-        <f>R3*1.02</f>
-        <v>3259.8978048000004</v>
-      </c>
-      <c r="T3" s="20">
-        <f>S3*1.09</f>
-        <v>3553.2886072320007</v>
-      </c>
-      <c r="U3" s="20">
-        <f>T3*1.02</f>
-        <v>3624.3543793766407</v>
-      </c>
-      <c r="V3" s="20">
-        <f>U3*1.02</f>
-        <v>3696.8414669641738</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2963</v>
+      </c>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="2:39 16384:16384" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>55</v>
       </c>
@@ -1519,8 +1509,14 @@
       <c r="O4" s="22">
         <v>733</v>
       </c>
-    </row>
-    <row r="5" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="21">
+        <v>745</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39 16384:16384" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>56</v>
       </c>
@@ -1566,8 +1562,14 @@
       <c r="O5" s="22">
         <v>1957</v>
       </c>
-    </row>
-    <row r="6" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="21">
+        <v>2132</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39 16384:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>68</v>
       </c>
@@ -1613,10 +1615,17 @@
       <c r="O6" s="24">
         <v>785</v>
       </c>
-    </row>
-    <row r="7" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="23">
+        <v>859</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>892</v>
+      </c>
+      <c r="XFD6" s="24"/>
+    </row>
+    <row r="7" spans="2:39 16384:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="25">
-        <f t="shared" ref="C7:O7" si="1">C6/C3</f>
+        <f t="shared" ref="C7:Q7" si="1">C6/C3</f>
         <v>0.20468557336621454</v>
       </c>
       <c r="D7" s="25">
@@ -1667,34 +1676,26 @@
         <f t="shared" si="1"/>
         <v>0.29182156133828996</v>
       </c>
-      <c r="P7" s="44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q7" s="44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="R7" s="44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="S7" s="44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="T7" s="44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="U7" s="44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="V7" s="44">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.2985749044143205</v>
+      </c>
+      <c r="Q7" s="25">
+        <f t="shared" si="1"/>
+        <v>0.30104623692203847</v>
+      </c>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+    </row>
+    <row r="8" spans="2:39 16384:16384" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="34">
-        <f t="shared" ref="C8:O8" si="2">SUM(C9:C10)</f>
+        <f t="shared" ref="C8:Q8" si="2">SUM(C9:C10)</f>
         <v>1253</v>
       </c>
       <c r="D8" s="34">
@@ -1745,29 +1746,16 @@
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="P8" s="33">
-        <v>1540</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>1540</v>
-      </c>
-      <c r="R8" s="33">
-        <v>1540</v>
-      </c>
-      <c r="S8" s="33">
-        <v>1540</v>
-      </c>
-      <c r="T8" s="33">
-        <v>1540</v>
-      </c>
-      <c r="U8" s="33">
-        <v>1580</v>
-      </c>
-      <c r="V8" s="33">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="9" spans="2:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="34">
+        <f t="shared" si="2"/>
+        <v>1606</v>
+      </c>
+      <c r="Q8" s="34">
+        <f t="shared" si="2"/>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39 16384:16384" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
         <v>55</v>
       </c>
@@ -1813,8 +1801,14 @@
       <c r="O9" s="37">
         <v>844</v>
       </c>
-    </row>
-    <row r="10" spans="2:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="36">
+        <v>882</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39 16384:16384" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
         <v>56</v>
       </c>
@@ -1860,8 +1854,14 @@
       <c r="O10" s="37">
         <v>656</v>
       </c>
-    </row>
-    <row r="11" spans="2:39" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P10" s="36">
+        <v>724</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39 16384:16384" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>68</v>
       </c>
@@ -1907,11 +1907,17 @@
       <c r="O11" s="40">
         <v>274</v>
       </c>
-    </row>
-    <row r="12" spans="2:39" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="39">
+        <v>305</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39 16384:16384" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="38"/>
       <c r="C12" s="41">
-        <f t="shared" ref="C12:O12" si="3">C11/C8</f>
+        <f t="shared" ref="C12:Q12" si="3">C11/C8</f>
         <v>0.16999201915403034</v>
       </c>
       <c r="D12" s="41">
@@ -1963,33 +1969,25 @@
         <v>0.18266666666666667</v>
       </c>
       <c r="P12" s="41">
-        <v>0.185</v>
+        <f t="shared" si="3"/>
+        <v>0.18991282689912828</v>
       </c>
       <c r="Q12" s="41">
-        <v>0.185</v>
-      </c>
-      <c r="R12" s="41">
-        <v>0.185</v>
-      </c>
-      <c r="S12" s="41">
-        <v>0.185</v>
-      </c>
-      <c r="T12" s="41">
-        <v>0.185</v>
-      </c>
-      <c r="U12" s="41">
-        <v>0.185</v>
-      </c>
-      <c r="V12" s="41">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.18690400508582328</v>
+      </c>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+    </row>
+    <row r="13" spans="2:39 16384:16384" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="27">
-        <f t="shared" ref="C13:O13" si="4">SUM(C14:C16)</f>
+        <f t="shared" ref="C13:Q13" si="4">SUM(C14:C16)</f>
         <v>519</v>
       </c>
       <c r="D13" s="27">
@@ -2040,29 +2038,16 @@
         <f t="shared" si="4"/>
         <v>871</v>
       </c>
-      <c r="P13" s="26">
-        <v>908</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>920</v>
-      </c>
-      <c r="R13" s="26">
-        <v>960</v>
-      </c>
-      <c r="S13" s="26">
-        <v>930</v>
-      </c>
-      <c r="T13" s="26">
-        <v>950</v>
-      </c>
-      <c r="U13" s="26">
-        <v>980</v>
-      </c>
-      <c r="V13" s="26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:39" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="27">
+        <f t="shared" si="4"/>
+        <v>955</v>
+      </c>
+      <c r="Q13" s="27">
+        <f t="shared" si="4"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39 16384:16384" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>57</v>
       </c>
@@ -2108,8 +2093,14 @@
       <c r="O14" s="29">
         <v>355</v>
       </c>
-    </row>
-    <row r="15" spans="2:39" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="28">
+        <v>389</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39 16384:16384" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>58</v>
       </c>
@@ -2155,8 +2146,14 @@
       <c r="O15" s="29">
         <v>291</v>
       </c>
-    </row>
-    <row r="16" spans="2:39" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="28">
+        <v>329</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39 16384:16384" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>59</v>
       </c>
@@ -2202,8 +2199,14 @@
       <c r="O16" s="29">
         <v>225</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="28">
+        <v>237</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>68</v>
       </c>
@@ -2249,8 +2252,14 @@
       <c r="O17" s="31">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="30">
+        <v>206</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="25">
         <f t="shared" ref="C18:O18" si="5">C17/C13</f>
@@ -2305,33 +2314,25 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="P18" s="25">
-        <v>0.22500000000000001</v>
+        <f>P17/P13</f>
+        <v>0.21570680628272251</v>
       </c>
       <c r="Q18" s="25">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="R18" s="25">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="S18" s="25">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="T18" s="25">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="U18" s="25">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="V18" s="25">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.3">
+        <f>Q17/Q13</f>
+        <v>0.24312896405919662</v>
+      </c>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+    </row>
+    <row r="19" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="34">
-        <f t="shared" ref="C19:O19" si="6">SUM(C20:C21)</f>
+        <f t="shared" ref="C19:Q19" si="6">SUM(C20:C21)</f>
         <v>654</v>
       </c>
       <c r="D19" s="34">
@@ -2382,29 +2383,16 @@
         <f t="shared" si="6"/>
         <v>725</v>
       </c>
-      <c r="P19" s="33">
-        <v>725</v>
-      </c>
-      <c r="Q19" s="33">
-        <v>740</v>
-      </c>
-      <c r="R19" s="33">
-        <v>760</v>
-      </c>
-      <c r="S19" s="33">
-        <v>760</v>
-      </c>
-      <c r="T19" s="33">
-        <v>780</v>
-      </c>
-      <c r="U19" s="33">
-        <v>810</v>
-      </c>
-      <c r="V19" s="33">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="34">
+        <f t="shared" si="6"/>
+        <v>723</v>
+      </c>
+      <c r="Q19" s="34">
+        <f t="shared" si="6"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="s">
         <v>60</v>
       </c>
@@ -2450,8 +2438,14 @@
       <c r="O20" s="37">
         <v>435</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="36">
+        <v>454</v>
+      </c>
+      <c r="Q20" s="36">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
         <v>61</v>
       </c>
@@ -2497,8 +2491,14 @@
       <c r="O21" s="37">
         <v>290</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="36">
+        <v>269</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
         <v>68</v>
       </c>
@@ -2544,11 +2544,17 @@
       <c r="O22" s="40">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="39">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
       <c r="C23" s="41">
-        <f t="shared" ref="C23:O23" si="7">C22/C19</f>
+        <f t="shared" ref="C23:Q23" si="7">C22/C19</f>
         <v>0.172782874617737</v>
       </c>
       <c r="D23" s="41">
@@ -2599,29 +2605,21 @@
         <f t="shared" si="7"/>
         <v>0.16</v>
       </c>
-      <c r="P23" s="47">
-        <v>0.17</v>
-      </c>
-      <c r="Q23" s="47">
-        <v>0.17</v>
-      </c>
-      <c r="R23" s="47">
-        <v>0.17</v>
-      </c>
-      <c r="S23" s="47">
-        <v>0.17</v>
-      </c>
-      <c r="T23" s="47">
-        <v>0.17</v>
-      </c>
-      <c r="U23" s="47">
-        <v>0.17</v>
-      </c>
-      <c r="V23" s="47">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="41">
+        <f t="shared" si="7"/>
+        <v>0.17980636237897649</v>
+      </c>
+      <c r="Q23" s="41">
+        <f t="shared" si="7"/>
+        <v>0.19396551724137931</v>
+      </c>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row r="24" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>66</v>
       </c>
@@ -2667,29 +2665,14 @@
       <c r="O24" s="27">
         <v>158</v>
       </c>
-      <c r="P24" s="26">
-        <v>140</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>150</v>
-      </c>
-      <c r="R24" s="26">
-        <v>170</v>
-      </c>
-      <c r="S24" s="26">
-        <v>190</v>
-      </c>
-      <c r="T24" s="26">
-        <v>200</v>
-      </c>
-      <c r="U24" s="26">
-        <v>210</v>
-      </c>
-      <c r="V24" s="26">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="27">
+        <v>189</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
         <v>68</v>
       </c>
@@ -2735,11 +2718,17 @@
       <c r="O25" s="31">
         <v>-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
       <c r="C26" s="25">
-        <f t="shared" ref="C26:O26" si="8">C25/C24</f>
+        <f t="shared" ref="C26:Q26" si="8">C25/C24</f>
         <v>-8.4337349397590355E-2</v>
       </c>
       <c r="D26" s="25">
@@ -2790,33 +2779,24 @@
         <f t="shared" si="8"/>
         <v>-2.5316455696202531E-2</v>
       </c>
-      <c r="P26" s="48">
-        <v>-0.01</v>
-      </c>
-      <c r="Q26" s="48">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="R26" s="30">
-        <v>0</v>
-      </c>
-      <c r="S26" s="48">
-        <v>0.01</v>
-      </c>
-      <c r="T26" s="48">
-        <v>0.01</v>
-      </c>
-      <c r="U26" s="48">
-        <v>0.01</v>
-      </c>
-      <c r="V26" s="48">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="25">
+        <f t="shared" si="8"/>
+        <v>1.0582010582010581E-2</v>
+      </c>
+      <c r="Q26" s="25">
+        <f t="shared" si="8"/>
+        <v>-4.1916167664670656E-2</v>
+      </c>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+    </row>
+    <row r="27" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="12" t="s">
         <v>9</v>
@@ -2864,66 +2844,64 @@
         <v>5943</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" ref="P28:V28" si="9">SUM(P24+P19+P13+P8+P3)</f>
-        <v>6325.8</v>
+        <v>6350</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="9"/>
-        <v>6483.3119999999999</v>
+        <v>6345</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="9"/>
-        <v>6625.9782400000004</v>
+        <f>N28*(1+R46)</f>
+        <v>6444.3600000000006</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" si="9"/>
-        <v>6679.8978048000008</v>
+        <f>O28*(1+S46)</f>
+        <v>6477.8700000000008</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" si="9"/>
-        <v>7023.2886072320007</v>
+        <f>P28*(1+T46)</f>
+        <v>6921.5000000000009</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" si="9"/>
-        <v>7204.3543793766403</v>
+        <f>Q28*(1+U46)</f>
+        <v>6884.3249999999998</v>
       </c>
       <c r="V28" s="7">
-        <f t="shared" si="9"/>
-        <v>7286.8414669641734</v>
+        <f>R28*(1+V46)</f>
+        <v>6992.1306000000004</v>
       </c>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="7">
-        <f t="shared" ref="Z28:Z38" si="10">SUM(C28:F28)</f>
+        <f t="shared" ref="Z28:Z37" si="9">SUM(C28:F28)</f>
         <v>19628</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" ref="AA28:AA38" si="11">SUM(G28:J28)</f>
+        <f t="shared" ref="AA28:AA38" si="10">SUM(G28:J28)</f>
         <v>20752</v>
       </c>
       <c r="AB28" s="7">
-        <f t="shared" ref="AB28:AB38" si="12">SUM(K28:N28)</f>
+        <f t="shared" ref="AB28:AB38" si="11">SUM(K28:N28)</f>
         <v>23196</v>
       </c>
       <c r="AC28" s="7">
-        <f>SUM(N28:Q28)</f>
-        <v>24719.112000000001</v>
+        <f>SUM(O28:R28)</f>
+        <v>25082.36</v>
       </c>
       <c r="AD28" s="7">
         <f>SUM(S28:V28)</f>
-        <v>28194.382258372818</v>
+        <v>27275.825600000004</v>
       </c>
       <c r="AE28" s="7">
-        <f>AD28*1.08</f>
-        <v>30449.932839042645</v>
+        <f>AD28*1.1</f>
+        <v>30003.408160000006</v>
       </c>
       <c r="AF28" s="7">
-        <f>AE28*1.08</f>
-        <v>32885.92746616606</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+        <f>AE28*1.1</f>
+        <v>33003.74897600001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
@@ -2969,93 +2947,114 @@
       <c r="O29" s="1">
         <v>3725</v>
       </c>
+      <c r="P29" s="1">
+        <v>3940</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>3899</v>
+      </c>
       <c r="Z29" s="15">
+        <f t="shared" si="9"/>
+        <v>13293</v>
+      </c>
+      <c r="AA29" s="15">
         <f t="shared" si="10"/>
-        <v>13293</v>
-      </c>
-      <c r="AA29" s="15">
+        <v>13865</v>
+      </c>
+      <c r="AB29" s="15">
         <f t="shared" si="11"/>
-        <v>13865</v>
-      </c>
-      <c r="AB29" s="15">
-        <f t="shared" si="12"/>
         <v>14762</v>
       </c>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:O30" si="13">C28-C29</f>
+        <f t="shared" ref="C30:Q30" si="12">C28-C29</f>
         <v>1508</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1670</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1585</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1572</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1574</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1707</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1768</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1838</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1884</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2119</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2196</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2235</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2218</v>
       </c>
+      <c r="P30" s="1">
+        <f t="shared" si="12"/>
+        <v>2410</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="12"/>
+        <v>2446</v>
+      </c>
+      <c r="R30" s="1">
+        <f>R28*R42</f>
+        <v>2481.0786000000003</v>
+      </c>
       <c r="Z30" s="15">
+        <f t="shared" si="9"/>
+        <v>6335</v>
+      </c>
+      <c r="AA30" s="15">
         <f t="shared" si="10"/>
-        <v>6335</v>
-      </c>
-      <c r="AA30" s="15">
+        <v>6887</v>
+      </c>
+      <c r="AB30" s="15">
         <f t="shared" si="11"/>
-        <v>6887</v>
-      </c>
-      <c r="AB30" s="15">
-        <f t="shared" si="12"/>
         <v>8434</v>
       </c>
-      <c r="AC30" s="10"/>
+      <c r="AC30" s="15">
+        <f>SUM(O30:R30)</f>
+        <v>9555.0786000000007</v>
+      </c>
       <c r="AD30" s="10"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
@@ -3101,22 +3100,28 @@
       <c r="O31" s="1">
         <v>1025</v>
       </c>
+      <c r="P31" s="1">
+        <v>1021</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1028</v>
+      </c>
       <c r="Z31" s="15">
+        <f t="shared" si="9"/>
+        <v>3256</v>
+      </c>
+      <c r="AA31" s="15">
         <f t="shared" si="10"/>
-        <v>3256</v>
-      </c>
-      <c r="AA31" s="15">
+        <v>3227</v>
+      </c>
+      <c r="AB31" s="15">
         <f t="shared" si="11"/>
-        <v>3227</v>
-      </c>
-      <c r="AB31" s="15">
-        <f t="shared" si="12"/>
         <v>3795</v>
       </c>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>12</v>
       </c>
@@ -3162,127 +3167,121 @@
       <c r="O32" s="1">
         <v>189</v>
       </c>
+      <c r="P32" s="1">
+        <v>196</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>207</v>
+      </c>
       <c r="Z32" s="15">
+        <f t="shared" si="9"/>
+        <v>616</v>
+      </c>
+      <c r="AA32" s="15">
         <f t="shared" si="10"/>
-        <v>616</v>
-      </c>
-      <c r="AA32" s="15">
+        <v>665</v>
+      </c>
+      <c r="AB32" s="15">
         <f t="shared" si="11"/>
-        <v>665</v>
-      </c>
-      <c r="AB32" s="15">
-        <f t="shared" si="12"/>
         <v>754</v>
       </c>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:142" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:142" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ref="C33:O33" si="14">C30-C31-C32</f>
+        <f t="shared" ref="C33:O33" si="13">C30-C31-C32</f>
         <v>565</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>640</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>599</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>659</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>619</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>711</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>790</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>875</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>801</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>946</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1060</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1078</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1004</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" ref="P33:V33" si="15">P26*P24+P23*P19+P13*P18+P8*P12+P3*P7-320</f>
-        <v>1134.634</v>
+        <f>P30-P31-P32</f>
+        <v>1193</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="15"/>
-        <v>1172.7773600000003</v>
+        <f>Q30-Q31-Q32</f>
+        <v>1211</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="15"/>
-        <v>1204.9739072000002</v>
-      </c>
-      <c r="S33" s="1">
-        <f t="shared" si="15"/>
-        <v>1218.0213853440002</v>
-      </c>
-      <c r="T33" s="1">
-        <f t="shared" si="15"/>
-        <v>1308.1708100249602</v>
-      </c>
-      <c r="U33" s="1">
-        <f t="shared" si="15"/>
-        <v>1347.4192262254596</v>
-      </c>
-      <c r="V33" s="1">
-        <f t="shared" si="15"/>
-        <v>1366.9456107499686</v>
-      </c>
+        <f>R28*R43</f>
+        <v>1192.2066</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
       <c r="Z33" s="15">
+        <f t="shared" si="9"/>
+        <v>2463</v>
+      </c>
+      <c r="AA33" s="15">
         <f t="shared" si="10"/>
-        <v>2463</v>
-      </c>
-      <c r="AA33" s="15">
+        <v>2995</v>
+      </c>
+      <c r="AB33" s="15">
         <f t="shared" si="11"/>
-        <v>2995</v>
-      </c>
-      <c r="AB33" s="15">
-        <f t="shared" si="12"/>
         <v>3885</v>
       </c>
       <c r="AC33" s="15">
-        <f>SUM(N33:Q33)</f>
-        <v>4389.4113600000001</v>
+        <f>SUM(O33:R33)</f>
+        <v>4600.2065999999995</v>
       </c>
       <c r="AD33" s="15">
         <f>SUM(S33:V33)</f>
-        <v>5240.557032344389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:142" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:142" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>20</v>
       </c>
@@ -3329,22 +3328,28 @@
         <f>30</f>
         <v>30</v>
       </c>
+      <c r="P34">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>29</v>
+      </c>
       <c r="Z34" s="15">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="AA34" s="15">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="AA34" s="15">
+      <c r="AB34" s="15">
         <f t="shared" si="11"/>
-        <v>144</v>
-      </c>
-      <c r="AB34" s="15">
-        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:142" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:142" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>21</v>
       </c>
@@ -3390,93 +3395,107 @@
       <c r="O35" s="1">
         <v>-26</v>
       </c>
+      <c r="P35" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>22</v>
+      </c>
       <c r="Z35" s="15">
+        <f t="shared" si="9"/>
+        <v>-40</v>
+      </c>
+      <c r="AA35" s="15">
         <f t="shared" si="10"/>
-        <v>-40</v>
-      </c>
-      <c r="AA35" s="15">
+        <v>36</v>
+      </c>
+      <c r="AB35" s="15">
         <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="AB35" s="15">
-        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:142" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:142" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" ref="C36:O36" si="16">C33-C34+C35</f>
+        <f t="shared" ref="C36:Q36" si="14">C33-C34+C35</f>
         <v>538</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>620</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>496</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>625</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>579</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>639</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>719</v>
       </c>
       <c r="J36" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>950</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>740</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>897</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1079</v>
       </c>
       <c r="N36" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1111</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>948</v>
       </c>
+      <c r="P36" s="1">
+        <f t="shared" si="14"/>
+        <v>1196</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="14"/>
+        <v>1204</v>
+      </c>
       <c r="Z36" s="15">
+        <f t="shared" si="9"/>
+        <v>2279</v>
+      </c>
+      <c r="AA36" s="15">
         <f t="shared" si="10"/>
-        <v>2279</v>
-      </c>
-      <c r="AA36" s="15">
+        <v>2887</v>
+      </c>
+      <c r="AB36" s="15">
         <f t="shared" si="11"/>
-        <v>2887</v>
-      </c>
-      <c r="AB36" s="15">
-        <f t="shared" si="12"/>
         <v>3827</v>
       </c>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" spans="1:142" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:142" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>16</v>
       </c>
@@ -3522,633 +3541,647 @@
       <c r="O37" s="1">
         <v>179</v>
       </c>
+      <c r="P37" s="1">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>193</v>
+      </c>
       <c r="Z37" s="15">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+      <c r="AA37" s="15">
         <f t="shared" si="10"/>
-        <v>750</v>
-      </c>
-      <c r="AA37" s="15">
+        <v>445</v>
+      </c>
+      <c r="AB37" s="15">
         <f t="shared" si="11"/>
-        <v>445</v>
-      </c>
-      <c r="AB37" s="15">
-        <f t="shared" si="12"/>
         <v>604</v>
       </c>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
     </row>
-    <row r="38" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ref="C38:O38" si="17">C36-C37</f>
+        <f t="shared" ref="C38:Q38" si="15">C36-C37</f>
         <v>459</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>506</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>551</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>493</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>520</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>607</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>822</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>617</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>744</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>892</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>970</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>769</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" ref="P38:V38" si="18">P33-P33*P44</f>
-        <v>953.09256000000005</v>
+        <f t="shared" si="15"/>
+        <v>995</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="18"/>
-        <v>985.13298240000017</v>
+        <f t="shared" si="15"/>
+        <v>1011</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="18"/>
-        <v>1012.1780820480002</v>
+        <f>R28*R45</f>
+        <v>966.654</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="18"/>
-        <v>1023.1379636889602</v>
+        <f>S28*S45</f>
+        <v>971.68050000000005</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="18"/>
-        <v>1098.8634804209667</v>
+        <f>T28*T45</f>
+        <v>1038.2250000000001</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="18"/>
-        <v>1131.832150029386</v>
+        <f>U28*U45</f>
+        <v>1032.6487499999998</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="18"/>
-        <v>1148.2343130299737</v>
+        <f>V28*V45</f>
+        <v>1048.8195900000001</v>
       </c>
       <c r="W38"/>
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38" s="15">
+        <f>SUM(C38:F38)</f>
+        <v>1529</v>
+      </c>
+      <c r="AA38" s="15">
         <f t="shared" si="10"/>
-        <v>1529</v>
-      </c>
-      <c r="AA38" s="15">
+        <v>2442</v>
+      </c>
+      <c r="AB38" s="15">
         <f t="shared" si="11"/>
-        <v>2442</v>
-      </c>
-      <c r="AB38" s="15">
-        <f t="shared" si="12"/>
         <v>3223</v>
       </c>
       <c r="AC38" s="15">
-        <f>SUM(N38:Q38)</f>
-        <v>3677.2255424000004</v>
+        <f>SUM(O38:R38)</f>
+        <v>3741.654</v>
       </c>
       <c r="AD38" s="15">
         <f>SUM(S38:V38)</f>
-        <v>4402.0679071692866</v>
+        <v>4091.3738400000002</v>
       </c>
       <c r="AE38" s="1">
         <f>0.16*AE28</f>
-        <v>4871.9892542468233</v>
+        <v>4800.5453056000015</v>
       </c>
       <c r="AF38" s="1">
         <f>0.16*AF28</f>
-        <v>5261.7483945865697</v>
+        <v>5280.5998361600014</v>
       </c>
       <c r="AG38" s="1">
-        <f t="shared" ref="AG38:AM38" si="19">AF38*1.05</f>
-        <v>5524.8358143158985</v>
+        <f>AF38*1.05</f>
+        <v>5544.6298279680013</v>
       </c>
       <c r="AH38" s="1">
+        <f t="shared" ref="AH38:AM38" si="16">AG38*1.05</f>
+        <v>5821.8613193664014</v>
+      </c>
+      <c r="AI38" s="1">
+        <f t="shared" si="16"/>
+        <v>6112.9543853347213</v>
+      </c>
+      <c r="AJ38" s="1">
+        <f t="shared" si="16"/>
+        <v>6418.6021046014575</v>
+      </c>
+      <c r="AK38" s="1">
+        <f t="shared" si="16"/>
+        <v>6739.532209831531</v>
+      </c>
+      <c r="AL38" s="1">
+        <f t="shared" si="16"/>
+        <v>7076.508820323108</v>
+      </c>
+      <c r="AM38" s="1">
+        <f t="shared" si="16"/>
+        <v>7430.3342613392633</v>
+      </c>
+      <c r="AN38" s="1">
+        <f t="shared" ref="AN38:AT38" si="17">AM38*1.04</f>
+        <v>7727.5476317928342</v>
+      </c>
+      <c r="AO38" s="1">
+        <f t="shared" si="17"/>
+        <v>8036.649537064548</v>
+      </c>
+      <c r="AP38" s="1">
+        <f t="shared" si="17"/>
+        <v>8358.1155185471307</v>
+      </c>
+      <c r="AQ38" s="1">
+        <f t="shared" si="17"/>
+        <v>8692.4401392890159</v>
+      </c>
+      <c r="AR38" s="1">
+        <f t="shared" si="17"/>
+        <v>9040.1377448605763</v>
+      </c>
+      <c r="AS38" s="1">
+        <f t="shared" si="17"/>
+        <v>9401.743254654999</v>
+      </c>
+      <c r="AT38" s="1">
+        <f t="shared" si="17"/>
+        <v>9777.8129848411991</v>
+      </c>
+      <c r="AU38" s="1">
+        <f t="shared" ref="AU38:AW38" si="18">AT38*1.03</f>
+        <v>10071.147374386435</v>
+      </c>
+      <c r="AV38" s="1">
+        <f t="shared" si="18"/>
+        <v>10373.281795618028</v>
+      </c>
+      <c r="AW38" s="1">
+        <f t="shared" si="18"/>
+        <v>10684.480249486569</v>
+      </c>
+      <c r="AX38" s="15">
+        <f t="shared" ref="AX38:DF38" si="19">AW38*0.99</f>
+        <v>10577.635446991702</v>
+      </c>
+      <c r="AY38" s="15">
         <f t="shared" si="19"/>
-        <v>5801.0776050316936</v>
-      </c>
-      <c r="AI38" s="1">
+        <v>10471.859092521785</v>
+      </c>
+      <c r="AZ38" s="15">
         <f t="shared" si="19"/>
-        <v>6091.1314852832784</v>
-      </c>
-      <c r="AJ38" s="1">
+        <v>10367.140501596567</v>
+      </c>
+      <c r="BA38" s="15">
         <f t="shared" si="19"/>
-        <v>6395.6880595474422</v>
-      </c>
-      <c r="AK38" s="1">
+        <v>10263.4690965806</v>
+      </c>
+      <c r="BB38" s="15">
         <f t="shared" si="19"/>
-        <v>6715.4724625248145</v>
-      </c>
-      <c r="AL38" s="1">
+        <v>10160.834405614794</v>
+      </c>
+      <c r="BC38" s="15">
         <f t="shared" si="19"/>
-        <v>7051.2460856510552</v>
-      </c>
-      <c r="AM38" s="1">
+        <v>10059.226061558646</v>
+      </c>
+      <c r="BD38" s="15">
         <f t="shared" si="19"/>
-        <v>7403.8083899336079</v>
-      </c>
-      <c r="AN38" s="1">
-        <f t="shared" ref="AN38:AW38" si="20">AM38*1.01</f>
-        <v>7477.846473832944</v>
-      </c>
-      <c r="AO38" s="1">
+        <v>9958.6338009430583</v>
+      </c>
+      <c r="BE38" s="15">
+        <f t="shared" si="19"/>
+        <v>9859.0474629336277</v>
+      </c>
+      <c r="BF38" s="15">
+        <f t="shared" si="19"/>
+        <v>9760.4569883042914</v>
+      </c>
+      <c r="BG38" s="15">
+        <f t="shared" si="19"/>
+        <v>9662.8524184212492</v>
+      </c>
+      <c r="BH38" s="15">
+        <f t="shared" si="19"/>
+        <v>9566.2238942370368</v>
+      </c>
+      <c r="BI38" s="15">
+        <f t="shared" si="19"/>
+        <v>9470.5616552946667</v>
+      </c>
+      <c r="BJ38" s="15">
+        <f t="shared" si="19"/>
+        <v>9375.8560387417201</v>
+      </c>
+      <c r="BK38" s="15">
+        <f t="shared" si="19"/>
+        <v>9282.0974783543024</v>
+      </c>
+      <c r="BL38" s="15">
+        <f t="shared" si="19"/>
+        <v>9189.2765035707598</v>
+      </c>
+      <c r="BM38" s="15">
+        <f t="shared" si="19"/>
+        <v>9097.3837385350525</v>
+      </c>
+      <c r="BN38" s="15">
+        <f t="shared" si="19"/>
+        <v>9006.4099011497019</v>
+      </c>
+      <c r="BO38" s="15">
+        <f t="shared" si="19"/>
+        <v>8916.3458021382048</v>
+      </c>
+      <c r="BP38" s="15">
+        <f t="shared" si="19"/>
+        <v>8827.1823441168235</v>
+      </c>
+      <c r="BQ38" s="15">
+        <f t="shared" si="19"/>
+        <v>8738.9105206756558</v>
+      </c>
+      <c r="BR38" s="15">
+        <f t="shared" si="19"/>
+        <v>8651.5214154688983</v>
+      </c>
+      <c r="BS38" s="15">
+        <f t="shared" si="19"/>
+        <v>8565.0062013142087</v>
+      </c>
+      <c r="BT38" s="15">
+        <f t="shared" si="19"/>
+        <v>8479.3561393010659</v>
+      </c>
+      <c r="BU38" s="15">
+        <f t="shared" si="19"/>
+        <v>8394.5625779080547</v>
+      </c>
+      <c r="BV38" s="15">
+        <f t="shared" si="19"/>
+        <v>8310.6169521289739</v>
+      </c>
+      <c r="BW38" s="15">
+        <f t="shared" si="19"/>
+        <v>8227.5107826076837</v>
+      </c>
+      <c r="BX38" s="15">
+        <f t="shared" si="19"/>
+        <v>8145.2356747816066</v>
+      </c>
+      <c r="BY38" s="15">
+        <f t="shared" si="19"/>
+        <v>8063.7833180337902</v>
+      </c>
+      <c r="BZ38" s="15">
+        <f t="shared" si="19"/>
+        <v>7983.1454848534522</v>
+      </c>
+      <c r="CA38" s="15">
+        <f t="shared" si="19"/>
+        <v>7903.3140300049172</v>
+      </c>
+      <c r="CB38" s="15">
+        <f t="shared" si="19"/>
+        <v>7824.2808897048681</v>
+      </c>
+      <c r="CC38" s="15">
+        <f t="shared" si="19"/>
+        <v>7746.0380808078189</v>
+      </c>
+      <c r="CD38" s="15">
+        <f t="shared" si="19"/>
+        <v>7668.5776999997406</v>
+      </c>
+      <c r="CE38" s="15">
+        <f t="shared" si="19"/>
+        <v>7591.8919229997427</v>
+      </c>
+      <c r="CF38" s="15">
+        <f t="shared" si="19"/>
+        <v>7515.9730037697454</v>
+      </c>
+      <c r="CG38" s="15">
+        <f t="shared" si="19"/>
+        <v>7440.8132737320475</v>
+      </c>
+      <c r="CH38" s="15">
+        <f t="shared" si="19"/>
+        <v>7366.4051409947269</v>
+      </c>
+      <c r="CI38" s="15">
+        <f t="shared" si="19"/>
+        <v>7292.7410895847797</v>
+      </c>
+      <c r="CJ38" s="15">
+        <f t="shared" si="19"/>
+        <v>7219.8136786889318</v>
+      </c>
+      <c r="CK38" s="15">
+        <f t="shared" si="19"/>
+        <v>7147.6155419020424</v>
+      </c>
+      <c r="CL38" s="15">
+        <f t="shared" si="19"/>
+        <v>7076.1393864830216</v>
+      </c>
+      <c r="CM38" s="15">
+        <f t="shared" si="19"/>
+        <v>7005.3779926181915</v>
+      </c>
+      <c r="CN38" s="15">
+        <f t="shared" si="19"/>
+        <v>6935.3242126920095</v>
+      </c>
+      <c r="CO38" s="15">
+        <f t="shared" si="19"/>
+        <v>6865.9709705650894</v>
+      </c>
+      <c r="CP38" s="15">
+        <f t="shared" si="19"/>
+        <v>6797.3112608594383</v>
+      </c>
+      <c r="CQ38" s="15">
+        <f t="shared" si="19"/>
+        <v>6729.3381482508439</v>
+      </c>
+      <c r="CR38" s="15">
+        <f t="shared" si="19"/>
+        <v>6662.0447667683356</v>
+      </c>
+      <c r="CS38" s="15">
+        <f t="shared" si="19"/>
+        <v>6595.4243191006526</v>
+      </c>
+      <c r="CT38" s="15">
+        <f t="shared" si="19"/>
+        <v>6529.4700759096459</v>
+      </c>
+      <c r="CU38" s="15">
+        <f t="shared" si="19"/>
+        <v>6464.1753751505494</v>
+      </c>
+      <c r="CV38" s="15">
+        <f t="shared" si="19"/>
+        <v>6399.533621399044</v>
+      </c>
+      <c r="CW38" s="15">
+        <f t="shared" si="19"/>
+        <v>6335.5382851850536</v>
+      </c>
+      <c r="CX38" s="15">
+        <f t="shared" si="19"/>
+        <v>6272.1829023332029</v>
+      </c>
+      <c r="CY38" s="15">
+        <f t="shared" si="19"/>
+        <v>6209.4610733098707</v>
+      </c>
+      <c r="CZ38" s="15">
+        <f t="shared" si="19"/>
+        <v>6147.3664625767715</v>
+      </c>
+      <c r="DA38" s="15">
+        <f t="shared" si="19"/>
+        <v>6085.8927979510036</v>
+      </c>
+      <c r="DB38" s="15">
+        <f t="shared" si="19"/>
+        <v>6025.0338699714939</v>
+      </c>
+      <c r="DC38" s="15">
+        <f t="shared" si="19"/>
+        <v>5964.7835312717789</v>
+      </c>
+      <c r="DD38" s="15">
+        <f t="shared" si="19"/>
+        <v>5905.1356959590612</v>
+      </c>
+      <c r="DE38" s="15">
+        <f t="shared" si="19"/>
+        <v>5846.0843389994707</v>
+      </c>
+      <c r="DF38" s="15">
+        <f t="shared" si="19"/>
+        <v>5787.6234956094759</v>
+      </c>
+      <c r="DG38" s="15">
+        <f t="shared" ref="DG38:EL38" si="20">DF38*0.99</f>
+        <v>5729.7472606533811</v>
+      </c>
+      <c r="DH38" s="15">
         <f t="shared" si="20"/>
-        <v>7552.6249385712736</v>
-      </c>
-      <c r="AP38" s="1">
+        <v>5672.4497880468471</v>
+      </c>
+      <c r="DI38" s="15">
         <f t="shared" si="20"/>
-        <v>7628.1511879569862</v>
-      </c>
-      <c r="AQ38" s="1">
+        <v>5615.7252901663787</v>
+      </c>
+      <c r="DJ38" s="15">
         <f t="shared" si="20"/>
-        <v>7704.4326998365559</v>
-      </c>
-      <c r="AR38" s="1">
+        <v>5559.5680372647148</v>
+      </c>
+      <c r="DK38" s="15">
         <f t="shared" si="20"/>
-        <v>7781.4770268349212</v>
-      </c>
-      <c r="AS38" s="1">
+        <v>5503.9723568920672</v>
+      </c>
+      <c r="DL38" s="15">
         <f t="shared" si="20"/>
-        <v>7859.2917971032703</v>
-      </c>
-      <c r="AT38" s="1">
+        <v>5448.9326333231465</v>
+      </c>
+      <c r="DM38" s="15">
         <f t="shared" si="20"/>
-        <v>7937.8847150743031</v>
-      </c>
-      <c r="AU38" s="1">
+        <v>5394.4433069899151</v>
+      </c>
+      <c r="DN38" s="15">
         <f t="shared" si="20"/>
-        <v>8017.2635622250464</v>
-      </c>
-      <c r="AV38" s="1">
+        <v>5340.4988739200162</v>
+      </c>
+      <c r="DO38" s="15">
         <f t="shared" si="20"/>
-        <v>8097.4361978472971</v>
-      </c>
-      <c r="AW38" s="1">
+        <v>5287.093885180816</v>
+      </c>
+      <c r="DP38" s="15">
         <f t="shared" si="20"/>
-        <v>8178.4105598257702</v>
-      </c>
-      <c r="AX38" s="15">
-        <f t="shared" ref="AX38:DF38" si="21">AW38*0.99</f>
-        <v>8096.6264542275121</v>
-      </c>
-      <c r="AY38" s="15">
-        <f t="shared" si="21"/>
-        <v>8015.6601896852371</v>
-      </c>
-      <c r="AZ38" s="15">
-        <f t="shared" si="21"/>
-        <v>7935.5035877883847</v>
-      </c>
-      <c r="BA38" s="15">
-        <f t="shared" si="21"/>
-        <v>7856.1485519105008</v>
-      </c>
-      <c r="BB38" s="15">
-        <f t="shared" si="21"/>
-        <v>7777.5870663913956</v>
-      </c>
-      <c r="BC38" s="15">
-        <f t="shared" si="21"/>
-        <v>7699.8111957274814</v>
-      </c>
-      <c r="BD38" s="15">
-        <f t="shared" si="21"/>
-        <v>7622.8130837702065</v>
-      </c>
-      <c r="BE38" s="15">
-        <f t="shared" si="21"/>
-        <v>7546.5849529325042</v>
-      </c>
-      <c r="BF38" s="15">
-        <f t="shared" si="21"/>
-        <v>7471.119103403179</v>
-      </c>
-      <c r="BG38" s="15">
-        <f t="shared" si="21"/>
-        <v>7396.4079123691472</v>
-      </c>
-      <c r="BH38" s="15">
-        <f t="shared" si="21"/>
-        <v>7322.4438332454556</v>
-      </c>
-      <c r="BI38" s="15">
-        <f t="shared" si="21"/>
-        <v>7249.2193949130005</v>
-      </c>
-      <c r="BJ38" s="15">
-        <f t="shared" si="21"/>
-        <v>7176.72720096387</v>
-      </c>
-      <c r="BK38" s="15">
-        <f t="shared" si="21"/>
-        <v>7104.9599289542311</v>
-      </c>
-      <c r="BL38" s="15">
-        <f t="shared" si="21"/>
-        <v>7033.910329664689</v>
-      </c>
-      <c r="BM38" s="15">
-        <f t="shared" si="21"/>
-        <v>6963.5712263680425</v>
-      </c>
-      <c r="BN38" s="15">
-        <f t="shared" si="21"/>
-        <v>6893.9355141043625</v>
-      </c>
-      <c r="BO38" s="15">
-        <f t="shared" si="21"/>
-        <v>6824.9961589633185</v>
-      </c>
-      <c r="BP38" s="15">
-        <f t="shared" si="21"/>
-        <v>6756.7461973736854</v>
-      </c>
-      <c r="BQ38" s="15">
-        <f t="shared" si="21"/>
-        <v>6689.1787353999489</v>
-      </c>
-      <c r="BR38" s="15">
-        <f t="shared" si="21"/>
-        <v>6622.2869480459494</v>
-      </c>
-      <c r="BS38" s="15">
-        <f t="shared" si="21"/>
-        <v>6556.0640785654896</v>
-      </c>
-      <c r="BT38" s="15">
-        <f t="shared" si="21"/>
-        <v>6490.5034377798347</v>
-      </c>
-      <c r="BU38" s="15">
-        <f t="shared" si="21"/>
-        <v>6425.5984034020366</v>
-      </c>
-      <c r="BV38" s="15">
-        <f t="shared" si="21"/>
-        <v>6361.3424193680166</v>
-      </c>
-      <c r="BW38" s="15">
-        <f t="shared" si="21"/>
-        <v>6297.728995174336</v>
-      </c>
-      <c r="BX38" s="15">
-        <f t="shared" si="21"/>
-        <v>6234.7517052225921</v>
-      </c>
-      <c r="BY38" s="15">
-        <f t="shared" si="21"/>
-        <v>6172.4041881703661</v>
-      </c>
-      <c r="BZ38" s="15">
-        <f t="shared" si="21"/>
-        <v>6110.6801462886624</v>
-      </c>
-      <c r="CA38" s="15">
-        <f t="shared" si="21"/>
-        <v>6049.5733448257761</v>
-      </c>
-      <c r="CB38" s="15">
-        <f t="shared" si="21"/>
-        <v>5989.0776113775182</v>
-      </c>
-      <c r="CC38" s="15">
-        <f t="shared" si="21"/>
-        <v>5929.186835263743</v>
-      </c>
-      <c r="CD38" s="15">
-        <f t="shared" si="21"/>
-        <v>5869.8949669111053</v>
-      </c>
-      <c r="CE38" s="15">
-        <f t="shared" si="21"/>
-        <v>5811.196017241994</v>
-      </c>
-      <c r="CF38" s="15">
-        <f t="shared" si="21"/>
-        <v>5753.0840570695736</v>
-      </c>
-      <c r="CG38" s="15">
-        <f t="shared" si="21"/>
-        <v>5695.5532164988781</v>
-      </c>
-      <c r="CH38" s="15">
-        <f t="shared" si="21"/>
-        <v>5638.5976843338894</v>
-      </c>
-      <c r="CI38" s="15">
-        <f t="shared" si="21"/>
-        <v>5582.2117074905509</v>
-      </c>
-      <c r="CJ38" s="15">
-        <f t="shared" si="21"/>
-        <v>5526.3895904156452</v>
-      </c>
-      <c r="CK38" s="15">
-        <f t="shared" si="21"/>
-        <v>5471.1256945114883</v>
-      </c>
-      <c r="CL38" s="15">
-        <f t="shared" si="21"/>
-        <v>5416.4144375663736</v>
-      </c>
-      <c r="CM38" s="15">
-        <f t="shared" si="21"/>
-        <v>5362.2502931907102</v>
-      </c>
-      <c r="CN38" s="15">
-        <f t="shared" si="21"/>
-        <v>5308.6277902588026</v>
-      </c>
-      <c r="CO38" s="15">
-        <f t="shared" si="21"/>
-        <v>5255.5415123562143</v>
-      </c>
-      <c r="CP38" s="15">
-        <f t="shared" si="21"/>
-        <v>5202.9860972326524</v>
-      </c>
-      <c r="CQ38" s="15">
-        <f t="shared" si="21"/>
-        <v>5150.9562362603256</v>
-      </c>
-      <c r="CR38" s="15">
-        <f t="shared" si="21"/>
-        <v>5099.4466738977226</v>
-      </c>
-      <c r="CS38" s="15">
-        <f t="shared" si="21"/>
-        <v>5048.4522071587453</v>
-      </c>
-      <c r="CT38" s="15">
-        <f t="shared" si="21"/>
-        <v>4997.9676850871574</v>
-      </c>
-      <c r="CU38" s="15">
-        <f t="shared" si="21"/>
-        <v>4947.9880082362861</v>
-      </c>
-      <c r="CV38" s="15">
-        <f t="shared" si="21"/>
-        <v>4898.5081281539233</v>
-      </c>
-      <c r="CW38" s="15">
-        <f t="shared" si="21"/>
-        <v>4849.5230468723839</v>
-      </c>
-      <c r="CX38" s="15">
-        <f t="shared" si="21"/>
-        <v>4801.0278164036599</v>
-      </c>
-      <c r="CY38" s="15">
-        <f t="shared" si="21"/>
-        <v>4753.0175382396237</v>
-      </c>
-      <c r="CZ38" s="15">
-        <f t="shared" si="21"/>
-        <v>4705.4873628572277</v>
-      </c>
-      <c r="DA38" s="15">
-        <f t="shared" si="21"/>
-        <v>4658.432489228655</v>
-      </c>
-      <c r="DB38" s="15">
-        <f t="shared" si="21"/>
-        <v>4611.8481643363684</v>
-      </c>
-      <c r="DC38" s="15">
-        <f t="shared" si="21"/>
-        <v>4565.7296826930051</v>
-      </c>
-      <c r="DD38" s="15">
-        <f t="shared" si="21"/>
-        <v>4520.0723858660749</v>
-      </c>
-      <c r="DE38" s="15">
-        <f t="shared" si="21"/>
-        <v>4474.8716620074138</v>
-      </c>
-      <c r="DF38" s="15">
-        <f t="shared" si="21"/>
-        <v>4430.1229453873393</v>
-      </c>
-      <c r="DG38" s="15">
-        <f t="shared" ref="DG38:EL38" si="22">DF38*0.99</f>
-        <v>4385.8217159334663</v>
-      </c>
-      <c r="DH38" s="15">
-        <f t="shared" si="22"/>
-        <v>4341.9634987741319</v>
-      </c>
-      <c r="DI38" s="15">
-        <f t="shared" si="22"/>
-        <v>4298.5438637863908</v>
-      </c>
-      <c r="DJ38" s="15">
-        <f t="shared" si="22"/>
-        <v>4255.558425148527</v>
-      </c>
-      <c r="DK38" s="15">
-        <f t="shared" si="22"/>
-        <v>4213.002840897042</v>
-      </c>
-      <c r="DL38" s="15">
-        <f t="shared" si="22"/>
-        <v>4170.8728124880718</v>
-      </c>
-      <c r="DM38" s="15">
-        <f t="shared" si="22"/>
-        <v>4129.1640843631913</v>
-      </c>
-      <c r="DN38" s="15">
-        <f t="shared" si="22"/>
-        <v>4087.8724435195595</v>
-      </c>
-      <c r="DO38" s="15">
-        <f t="shared" si="22"/>
-        <v>4046.9937190843639</v>
-      </c>
-      <c r="DP38" s="15">
-        <f t="shared" si="22"/>
-        <v>4006.5237818935202</v>
+        <v>5234.2229463290078</v>
       </c>
       <c r="DQ38" s="15">
-        <f t="shared" si="22"/>
-        <v>3966.458544074585</v>
+        <f t="shared" si="20"/>
+        <v>5181.8807168657177</v>
       </c>
       <c r="DR38" s="15">
-        <f t="shared" si="22"/>
-        <v>3926.7939586338393</v>
+        <f t="shared" si="20"/>
+        <v>5130.0619096970604</v>
       </c>
       <c r="DS38" s="15">
-        <f t="shared" si="22"/>
-        <v>3887.526019047501</v>
+        <f t="shared" si="20"/>
+        <v>5078.7612906000895</v>
       </c>
       <c r="DT38" s="15">
-        <f t="shared" si="22"/>
-        <v>3848.6507588570262</v>
+        <f t="shared" si="20"/>
+        <v>5027.973677694089</v>
       </c>
       <c r="DU38" s="15">
-        <f t="shared" si="22"/>
-        <v>3810.1642512684557</v>
+        <f t="shared" si="20"/>
+        <v>4977.6939409171482</v>
       </c>
       <c r="DV38" s="15">
-        <f t="shared" si="22"/>
-        <v>3772.0626087557712</v>
+        <f t="shared" si="20"/>
+        <v>4927.9170015079762</v>
       </c>
       <c r="DW38" s="15">
-        <f t="shared" si="22"/>
-        <v>3734.3419826682134</v>
+        <f t="shared" si="20"/>
+        <v>4878.6378314928961</v>
       </c>
       <c r="DX38" s="15">
-        <f t="shared" si="22"/>
-        <v>3696.9985628415311</v>
+        <f t="shared" si="20"/>
+        <v>4829.8514531779674</v>
       </c>
       <c r="DY38" s="15">
-        <f t="shared" si="22"/>
-        <v>3660.0285772131156</v>
+        <f t="shared" si="20"/>
+        <v>4781.5529386461876</v>
       </c>
       <c r="DZ38" s="15">
-        <f t="shared" si="22"/>
-        <v>3623.4282914409846</v>
+        <f t="shared" si="20"/>
+        <v>4733.7374092597256</v>
       </c>
       <c r="EA38" s="15">
-        <f t="shared" si="22"/>
-        <v>3587.1940085265746</v>
+        <f t="shared" si="20"/>
+        <v>4686.4000351671284</v>
       </c>
       <c r="EB38" s="15">
-        <f t="shared" si="22"/>
-        <v>3551.3220684413091</v>
+        <f t="shared" si="20"/>
+        <v>4639.5360348154572</v>
       </c>
       <c r="EC38" s="15">
-        <f t="shared" si="22"/>
-        <v>3515.8088477568958</v>
+        <f t="shared" si="20"/>
+        <v>4593.1406744673022</v>
       </c>
       <c r="ED38" s="15">
-        <f t="shared" si="22"/>
-        <v>3480.6507592793268</v>
+        <f t="shared" si="20"/>
+        <v>4547.2092677226292</v>
       </c>
       <c r="EE38" s="15">
-        <f t="shared" si="22"/>
-        <v>3445.8442516865334</v>
+        <f t="shared" si="20"/>
+        <v>4501.7371750454031</v>
       </c>
       <c r="EF38" s="15">
-        <f t="shared" si="22"/>
-        <v>3411.3858091696679</v>
+        <f t="shared" si="20"/>
+        <v>4456.7198032949491</v>
       </c>
       <c r="EG38" s="15">
-        <f t="shared" si="22"/>
-        <v>3377.2719510779712</v>
+        <f t="shared" si="20"/>
+        <v>4412.1526052619993</v>
       </c>
       <c r="EH38" s="15">
-        <f t="shared" si="22"/>
-        <v>3343.4992315671916</v>
+        <f t="shared" si="20"/>
+        <v>4368.0310792093796</v>
       </c>
       <c r="EI38" s="15">
-        <f t="shared" si="22"/>
-        <v>3310.0642392515197</v>
+        <f t="shared" si="20"/>
+        <v>4324.3507684172855</v>
       </c>
       <c r="EJ38" s="15">
-        <f t="shared" si="22"/>
-        <v>3276.9635968590046</v>
+        <f t="shared" si="20"/>
+        <v>4281.1072607331125</v>
       </c>
       <c r="EK38" s="15">
-        <f t="shared" si="22"/>
-        <v>3244.1939608904145</v>
+        <f t="shared" si="20"/>
+        <v>4238.2961881257816</v>
       </c>
       <c r="EL38" s="15">
-        <f t="shared" si="22"/>
-        <v>3211.7520212815102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:142" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>4195.9132262445237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:142" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:O39" si="23">C38/C40</f>
+        <f t="shared" ref="C39:Q39" si="21">C38/C40</f>
         <v>1.144923921177351</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1.2605879422022921</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>3.234635481463051E-2</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1.3720119521912351</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1.2269785963165754</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1.2977289742949838</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1.5163627279540344</v>
       </c>
       <c r="J39" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.0508982035928143</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1.5405742821473158</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1.8567506862989769</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.2211155378486054</v>
       </c>
       <c r="N39" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2.4183495387683869</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1.9134112963423737</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="21"/>
+        <v>2.481296758104738</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="21"/>
+        <v>2.5344697919278016</v>
       </c>
       <c r="Z39" s="45">
         <f>Z38/Z40</f>
@@ -4164,462 +4197,462 @@
       </c>
       <c r="AC39" s="46">
         <f>AC38/AC40</f>
-        <v>9.1701385097256871</v>
+        <v>9.330807980049876</v>
       </c>
       <c r="AD39" s="46">
-        <f t="shared" ref="AD39:CO39" si="24">AD38/AD40</f>
-        <v>10.977725454287498</v>
+        <f t="shared" ref="AD39:CO39" si="22">AD38/AD40</f>
+        <v>10.202927281795512</v>
       </c>
       <c r="AE39" s="46">
-        <f t="shared" si="24"/>
-        <v>12.149599137772627</v>
+        <f t="shared" si="22"/>
+        <v>11.971434677306737</v>
       </c>
       <c r="AF39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.121567068794437</v>
+        <f t="shared" si="22"/>
+        <v>13.16857814503741</v>
       </c>
       <c r="AG39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.77764542223416</v>
+        <f t="shared" si="22"/>
+        <v>13.827007052289281</v>
       </c>
       <c r="AH39" s="46">
-        <f t="shared" si="24"/>
-        <v>14.466527693345869</v>
+        <f t="shared" si="22"/>
+        <v>14.518357404903744</v>
       </c>
       <c r="AI39" s="46">
-        <f t="shared" si="24"/>
-        <v>15.189854078013163</v>
+        <f t="shared" si="22"/>
+        <v>15.244275275148931</v>
       </c>
       <c r="AJ39" s="46">
-        <f t="shared" si="24"/>
-        <v>15.949346781913821</v>
+        <f t="shared" si="22"/>
+        <v>16.006489038906377</v>
       </c>
       <c r="AK39" s="46">
-        <f t="shared" si="24"/>
-        <v>16.746814121009514</v>
+        <f t="shared" si="22"/>
+        <v>16.806813490851699</v>
       </c>
       <c r="AL39" s="46">
-        <f t="shared" si="24"/>
-        <v>17.584154827059987</v>
+        <f t="shared" si="22"/>
+        <v>17.647154165394284</v>
       </c>
       <c r="AM39" s="46">
-        <f t="shared" si="24"/>
-        <v>18.463362568412986</v>
+        <f t="shared" si="22"/>
+        <v>18.529511873663999</v>
       </c>
       <c r="AN39" s="46">
-        <f t="shared" si="24"/>
-        <v>18.647996194097118</v>
+        <f t="shared" si="22"/>
+        <v>19.270692348610559</v>
       </c>
       <c r="AO39" s="46">
-        <f t="shared" si="24"/>
-        <v>18.83447615603809</v>
+        <f t="shared" si="22"/>
+        <v>20.041520042554982</v>
       </c>
       <c r="AP39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.022820917598469</v>
+        <f t="shared" si="22"/>
+        <v>20.843180844257184</v>
       </c>
       <c r="AQ39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.213049126774454</v>
+        <f t="shared" si="22"/>
+        <v>21.67690807802747</v>
       </c>
       <c r="AR39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.405179618042197</v>
+        <f t="shared" si="22"/>
+        <v>22.54398440114857</v>
       </c>
       <c r="AS39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.599231414222618</v>
+        <f t="shared" si="22"/>
+        <v>23.445743777194512</v>
       </c>
       <c r="AT39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.795223728364846</v>
+        <f t="shared" si="22"/>
+        <v>24.383573528282291</v>
       </c>
       <c r="AU39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.993175965648494</v>
+        <f t="shared" si="22"/>
+        <v>25.11508073413076</v>
       </c>
       <c r="AV39" s="46">
-        <f t="shared" si="24"/>
-        <v>20.19310772530498</v>
+        <f t="shared" si="22"/>
+        <v>25.868533156154683</v>
       </c>
       <c r="AW39" s="46">
-        <f t="shared" si="24"/>
-        <v>20.39503880255803</v>
+        <f t="shared" si="22"/>
+        <v>26.644589150839323</v>
       </c>
       <c r="AX39" s="46">
-        <f t="shared" si="24"/>
-        <v>20.191088414532448</v>
+        <f t="shared" si="22"/>
+        <v>26.37814325933093</v>
       </c>
       <c r="AY39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.989177530387124</v>
+        <f t="shared" si="22"/>
+        <v>26.114361826737618</v>
       </c>
       <c r="AZ39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.789285755083252</v>
+        <f t="shared" si="22"/>
+        <v>25.853218208470242</v>
       </c>
       <c r="BA39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.591392897532423</v>
+        <f t="shared" si="22"/>
+        <v>25.594686026385538</v>
       </c>
       <c r="BB39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.395478968557097</v>
+        <f t="shared" si="22"/>
+        <v>25.33873916612168</v>
       </c>
       <c r="BC39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.201524178871523</v>
+        <f t="shared" si="22"/>
+        <v>25.085351774460463</v>
       </c>
       <c r="BD39" s="46">
-        <f t="shared" si="24"/>
-        <v>19.00950893708281</v>
+        <f t="shared" si="22"/>
+        <v>24.834498256715857</v>
       </c>
       <c r="BE39" s="46">
-        <f t="shared" si="24"/>
-        <v>18.819413847711981</v>
+        <f t="shared" si="22"/>
+        <v>24.586153274148696</v>
       </c>
       <c r="BF39" s="46">
-        <f t="shared" si="24"/>
-        <v>18.631219709234859</v>
+        <f t="shared" si="22"/>
+        <v>24.34029174140721</v>
       </c>
       <c r="BG39" s="46">
-        <f t="shared" si="24"/>
-        <v>18.44490751214251</v>
+        <f t="shared" si="22"/>
+        <v>24.09688882399314</v>
       </c>
       <c r="BH39" s="46">
-        <f t="shared" si="24"/>
-        <v>18.260458437021086</v>
+        <f t="shared" si="22"/>
+        <v>23.85591993575321</v>
       </c>
       <c r="BI39" s="46">
-        <f t="shared" si="24"/>
-        <v>18.077853852650875</v>
+        <f t="shared" si="22"/>
+        <v>23.617360736395678</v>
       </c>
       <c r="BJ39" s="46">
-        <f t="shared" si="24"/>
-        <v>17.897075314124365</v>
+        <f t="shared" si="22"/>
+        <v>23.381187129031719</v>
       </c>
       <c r="BK39" s="46">
-        <f t="shared" si="24"/>
-        <v>17.718104560983122</v>
+        <f t="shared" si="22"/>
+        <v>23.147375257741402</v>
       </c>
       <c r="BL39" s="46">
-        <f t="shared" si="24"/>
-        <v>17.54092351537329</v>
+        <f t="shared" si="22"/>
+        <v>22.91590150516399</v>
       </c>
       <c r="BM39" s="46">
-        <f t="shared" si="24"/>
-        <v>17.365514280219557</v>
+        <f t="shared" si="22"/>
+        <v>22.686742490112351</v>
       </c>
       <c r="BN39" s="46">
-        <f t="shared" si="24"/>
-        <v>17.191859137417364</v>
+        <f t="shared" si="22"/>
+        <v>22.459875065211225</v>
       </c>
       <c r="BO39" s="46">
-        <f t="shared" si="24"/>
-        <v>17.019940546043188</v>
+        <f t="shared" si="22"/>
+        <v>22.235276314559115</v>
       </c>
       <c r="BP39" s="46">
-        <f t="shared" si="24"/>
-        <v>16.849741140582758</v>
+        <f t="shared" si="22"/>
+        <v>22.012923551413525</v>
       </c>
       <c r="BQ39" s="46">
-        <f t="shared" si="24"/>
-        <v>16.681243729176931</v>
+        <f t="shared" si="22"/>
+        <v>21.792794315899393</v>
       </c>
       <c r="BR39" s="46">
-        <f t="shared" si="24"/>
-        <v>16.51443129188516</v>
+        <f t="shared" si="22"/>
+        <v>21.574866372740395</v>
       </c>
       <c r="BS39" s="46">
-        <f t="shared" si="24"/>
-        <v>16.349286978966308</v>
+        <f t="shared" si="22"/>
+        <v>21.359117709012988</v>
       </c>
       <c r="BT39" s="46">
-        <f t="shared" si="24"/>
-        <v>16.185794109176644</v>
+        <f t="shared" si="22"/>
+        <v>21.145526531922858</v>
       </c>
       <c r="BU39" s="46">
-        <f t="shared" si="24"/>
-        <v>16.02393616808488</v>
+        <f t="shared" si="22"/>
+        <v>20.934071266603627</v>
       </c>
       <c r="BV39" s="46">
-        <f t="shared" si="24"/>
-        <v>15.863696806404031</v>
+        <f t="shared" si="22"/>
+        <v>20.72473055393759</v>
       </c>
       <c r="BW39" s="46">
-        <f t="shared" si="24"/>
-        <v>15.70505983833999</v>
+        <f t="shared" si="22"/>
+        <v>20.517483248398214</v>
       </c>
       <c r="BX39" s="46">
-        <f t="shared" si="24"/>
-        <v>15.548009239956588</v>
+        <f t="shared" si="22"/>
+        <v>20.312308415914231</v>
       </c>
       <c r="BY39" s="46">
-        <f t="shared" si="24"/>
-        <v>15.392529147557022</v>
+        <f t="shared" si="22"/>
+        <v>20.109185331755089</v>
       </c>
       <c r="BZ39" s="46">
-        <f t="shared" si="24"/>
-        <v>15.238603856081452</v>
+        <f t="shared" si="22"/>
+        <v>19.908093478437536</v>
       </c>
       <c r="CA39" s="46">
-        <f t="shared" si="24"/>
-        <v>15.086217817520639</v>
+        <f t="shared" si="22"/>
+        <v>19.709012543653159</v>
       </c>
       <c r="CB39" s="46">
-        <f t="shared" si="24"/>
-        <v>14.935355639345431</v>
+        <f t="shared" si="22"/>
+        <v>19.511922418216628</v>
       </c>
       <c r="CC39" s="46">
-        <f t="shared" si="24"/>
-        <v>14.786002082951978</v>
+        <f t="shared" si="22"/>
+        <v>19.31680319403446</v>
       </c>
       <c r="CD39" s="46">
-        <f t="shared" si="24"/>
-        <v>14.638142062122457</v>
+        <f t="shared" si="22"/>
+        <v>19.123635162094118</v>
       </c>
       <c r="CE39" s="46">
-        <f t="shared" si="24"/>
-        <v>14.491760641501232</v>
+        <f t="shared" si="22"/>
+        <v>18.932398810473174</v>
       </c>
       <c r="CF39" s="46">
-        <f t="shared" si="24"/>
-        <v>14.346843035086218</v>
+        <f t="shared" si="22"/>
+        <v>18.743074822368442</v>
       </c>
       <c r="CG39" s="46">
-        <f t="shared" si="24"/>
-        <v>14.203374604735357</v>
+        <f t="shared" si="22"/>
+        <v>18.555644074144755</v>
       </c>
       <c r="CH39" s="46">
-        <f t="shared" si="24"/>
-        <v>14.061340858688004</v>
+        <f t="shared" si="22"/>
+        <v>18.370087633403308</v>
       </c>
       <c r="CI39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.920727450101124</v>
+        <f t="shared" si="22"/>
+        <v>18.186386757069275</v>
       </c>
       <c r="CJ39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.781520175600113</v>
+        <f t="shared" si="22"/>
+        <v>18.004522889498585</v>
       </c>
       <c r="CK39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.643704973844111</v>
+        <f t="shared" si="22"/>
+        <v>17.824477660603598</v>
       </c>
       <c r="CL39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.507267924105671</v>
+        <f t="shared" si="22"/>
+        <v>17.646232883997559</v>
       </c>
       <c r="CM39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.372195244864614</v>
+        <f t="shared" si="22"/>
+        <v>17.469770555157584</v>
       </c>
       <c r="CN39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.238473292415966</v>
+        <f t="shared" si="22"/>
+        <v>17.295072849606008</v>
       </c>
       <c r="CO39" s="46">
-        <f t="shared" si="24"/>
-        <v>13.106088559491806</v>
+        <f t="shared" si="22"/>
+        <v>17.12212212110995</v>
       </c>
       <c r="CP39" s="46">
-        <f t="shared" ref="CP39:EL39" si="25">CP38/CP40</f>
-        <v>12.975027673896889</v>
+        <f t="shared" ref="CP39:EL39" si="23">CP38/CP40</f>
+        <v>16.950900899898848</v>
       </c>
       <c r="CQ39" s="46">
-        <f t="shared" si="25"/>
-        <v>12.845277397157918</v>
+        <f t="shared" si="23"/>
+        <v>16.781391890899862</v>
       </c>
       <c r="CR39" s="46">
-        <f t="shared" si="25"/>
-        <v>12.716824623186341</v>
+        <f t="shared" si="23"/>
+        <v>16.613577971990861</v>
       </c>
       <c r="CS39" s="46">
-        <f t="shared" si="25"/>
-        <v>12.589656376954476</v>
+        <f t="shared" si="23"/>
+        <v>16.447442192270955</v>
       </c>
       <c r="CT39" s="46">
-        <f t="shared" si="25"/>
-        <v>12.463759813184931</v>
+        <f t="shared" si="23"/>
+        <v>16.282967770348243</v>
       </c>
       <c r="CU39" s="46">
-        <f t="shared" si="25"/>
-        <v>12.339122215053083</v>
+        <f t="shared" si="23"/>
+        <v>16.120138092644762</v>
       </c>
       <c r="CV39" s="46">
-        <f t="shared" si="25"/>
-        <v>12.215730992902552</v>
+        <f t="shared" si="23"/>
+        <v>15.958936711718314</v>
       </c>
       <c r="CW39" s="46">
-        <f t="shared" si="25"/>
-        <v>12.093573682973526</v>
+        <f t="shared" si="23"/>
+        <v>15.799347344601131</v>
       </c>
       <c r="CX39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.97263794614379</v>
+        <f t="shared" si="23"/>
+        <v>15.64135387115512</v>
       </c>
       <c r="CY39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.852911566682353</v>
+        <f t="shared" si="23"/>
+        <v>15.484940332443568</v>
       </c>
       <c r="CZ39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.734382451015531</v>
+        <f t="shared" si="23"/>
+        <v>15.33009092911913</v>
       </c>
       <c r="DA39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.617038626505375</v>
+        <f t="shared" si="23"/>
+        <v>15.176790019827939</v>
       </c>
       <c r="DB39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.500868240240321</v>
+        <f t="shared" si="23"/>
+        <v>15.025022119629661</v>
       </c>
       <c r="DC39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.385859557837918</v>
+        <f t="shared" si="23"/>
+        <v>14.874771898433364</v>
       </c>
       <c r="DD39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.272000962259538</v>
+        <f t="shared" si="23"/>
+        <v>14.726024179449031</v>
       </c>
       <c r="DE39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.159280952636943</v>
+        <f t="shared" si="23"/>
+        <v>14.578763937654541</v>
       </c>
       <c r="DF39" s="46">
-        <f t="shared" si="25"/>
-        <v>11.047688143110571</v>
+        <f t="shared" si="23"/>
+        <v>14.432976298277994</v>
       </c>
       <c r="DG39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.937211261679467</v>
+        <f t="shared" si="23"/>
+        <v>14.288646535295214</v>
       </c>
       <c r="DH39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.827839149062672</v>
+        <f t="shared" si="23"/>
+        <v>14.145760069942263</v>
       </c>
       <c r="DI39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.719560757572047</v>
+        <f t="shared" si="23"/>
+        <v>14.004302469242839</v>
       </c>
       <c r="DJ39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.612365149996327</v>
+        <f t="shared" si="23"/>
+        <v>13.864259444550411</v>
       </c>
       <c r="DK39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.506241498496363</v>
+        <f t="shared" si="23"/>
+        <v>13.725616850104906</v>
       </c>
       <c r="DL39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.401179083511401</v>
+        <f t="shared" si="23"/>
+        <v>13.588360681603858</v>
       </c>
       <c r="DM39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.297167292676287</v>
+        <f t="shared" si="23"/>
+        <v>13.452477074787819</v>
       </c>
       <c r="DN39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.194195619749525</v>
+        <f t="shared" si="23"/>
+        <v>13.31795230403994</v>
       </c>
       <c r="DO39" s="46">
-        <f t="shared" si="25"/>
-        <v>10.092253663552029</v>
+        <f t="shared" si="23"/>
+        <v>13.184772780999541</v>
       </c>
       <c r="DP39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.9913311269165099</v>
+        <f t="shared" si="23"/>
+        <v>13.052925053189545</v>
       </c>
       <c r="DQ39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.891417815647344</v>
+        <f t="shared" si="23"/>
+        <v>12.92239580265765</v>
       </c>
       <c r="DR39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.7925036374908707</v>
+        <f t="shared" si="23"/>
+        <v>12.793171844631074</v>
       </c>
       <c r="DS39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.6945786011159623</v>
+        <f t="shared" si="23"/>
+        <v>12.665240126184761</v>
       </c>
       <c r="DT39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.597632815104804</v>
+        <f t="shared" si="23"/>
+        <v>12.538587724922916</v>
       </c>
       <c r="DU39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.5016564869537543</v>
+        <f t="shared" si="23"/>
+        <v>12.413201847673687</v>
       </c>
       <c r="DV39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.4066399220842172</v>
+        <f t="shared" si="23"/>
+        <v>12.289069829196949</v>
       </c>
       <c r="DW39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.3125735228633744</v>
+        <f t="shared" si="23"/>
+        <v>12.166179130904977</v>
       </c>
       <c r="DX39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.2194477876347403</v>
+        <f t="shared" si="23"/>
+        <v>12.044517339595929</v>
       </c>
       <c r="DY39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.1272533097583928</v>
+        <f t="shared" si="23"/>
+        <v>11.924072166199968</v>
       </c>
       <c r="DZ39" s="46">
-        <f t="shared" si="25"/>
-        <v>9.0359807766608089</v>
+        <f t="shared" si="23"/>
+        <v>11.804831444537969</v>
       </c>
       <c r="EA39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.9456209688942003</v>
+        <f t="shared" si="23"/>
+        <v>11.686783130092589</v>
       </c>
       <c r="EB39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.8561647592052601</v>
+        <f t="shared" si="23"/>
+        <v>11.569915298791663</v>
       </c>
       <c r="EC39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.7676031116132069</v>
+        <f t="shared" si="23"/>
+        <v>11.454216145803747</v>
       </c>
       <c r="ED39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.679927080497075</v>
+        <f t="shared" si="23"/>
+        <v>11.339673984345708</v>
       </c>
       <c r="EE39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.5931278096921027</v>
+        <f t="shared" si="23"/>
+        <v>11.226277244502253</v>
       </c>
       <c r="EF39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.5071965315951825</v>
+        <f t="shared" si="23"/>
+        <v>11.11401447205723</v>
       </c>
       <c r="EG39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.4221245662792299</v>
+        <f t="shared" si="23"/>
+        <v>11.002874327336656</v>
       </c>
       <c r="EH39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.3379033206164372</v>
+        <f t="shared" si="23"/>
+        <v>10.892845584063291</v>
       </c>
       <c r="EI39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.2545242874102733</v>
+        <f t="shared" si="23"/>
+        <v>10.783917128222656</v>
       </c>
       <c r="EJ39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.1719790445361706</v>
+        <f t="shared" si="23"/>
+        <v>10.67607795694043</v>
       </c>
       <c r="EK39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.0902592540908085</v>
+        <f t="shared" si="23"/>
+        <v>10.569317177371026</v>
       </c>
       <c r="EL39" s="46">
-        <f t="shared" si="25"/>
-        <v>8.0093566615499014</v>
-      </c>
-    </row>
-    <row r="40" spans="1:142" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>10.463624005597316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:142" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
@@ -4666,23 +4699,11 @@
         <v>401</v>
       </c>
       <c r="Q40" s="1">
-        <v>401</v>
-      </c>
-      <c r="R40" s="1">
-        <v>401</v>
-      </c>
-      <c r="S40" s="1">
-        <v>401</v>
-      </c>
-      <c r="T40" s="1">
-        <v>401</v>
-      </c>
-      <c r="U40">
-        <v>401</v>
-      </c>
-      <c r="V40">
-        <v>401</v>
-      </c>
+        <v>398.9</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
       <c r="Z40" s="1">
         <v>401</v>
       </c>
@@ -5035,68 +5056,92 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:142" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:142" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:142" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="1:142" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ref="C42:O42" si="26">C30/C28</f>
+        <f t="shared" ref="C42:P42" si="24">C30/C28</f>
         <v>0.32139812446717819</v>
       </c>
       <c r="D42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.3202301054650048</v>
       </c>
       <c r="E42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.32195815559618118</v>
       </c>
       <c r="F42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.3276365152146728</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.32500516208961389</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.3275134305448964</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.33276868059476755</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.34138187221396732</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.34360751413459784</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.36123423116263209</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.37346938775510202</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.37456008044243339</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.37321218239946158</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="24"/>
+        <v>0.37952755905511809</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" ref="Q42" si="25">Q30/Q28</f>
+        <v>0.38550039401103231</v>
+      </c>
+      <c r="R42" s="52">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S42" s="52">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="T42" s="52">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="U42" s="52">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="V42" s="52">
+        <v>0.38500000000000001</v>
       </c>
       <c r="Z42" s="9">
         <f>Z30/Z28</f>
@@ -5110,6 +5155,10 @@
         <f>AB30/AB28</f>
         <v>0.36359717192619417</v>
       </c>
+      <c r="AC42" s="9">
+        <f>AC30/AC28</f>
+        <v>0.3809481484198457</v>
+      </c>
       <c r="AD42" s="49" t="s">
         <v>104</v>
       </c>
@@ -5117,90 +5166,85 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:142" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:142" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" ref="C43:V43" si="27">C33/C28</f>
+        <f t="shared" ref="C43:P43" si="26">C33/C28</f>
         <v>0.12041773231031543</v>
       </c>
       <c r="D43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.12272291466922339</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.12167377615275239</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.1373488953730721</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.12781333883956225</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.136415963161934</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.14869188782232259</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.16251857355126301</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.14608790807951852</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.16126832594613025</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.18027210884353742</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.18066029830735714</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.16893824667676258</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" si="27"/>
-        <v>0.17936608808372062</v>
+        <f t="shared" si="26"/>
+        <v>0.1878740157480315</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="27"/>
-        <v>0.18089170473363</v>
+        <f t="shared" ref="Q43" si="27">Q33/Q28</f>
+        <v>0.19085894405043341</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="27"/>
-        <v>0.18185600126570897</v>
+        <v>0.185</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" si="27"/>
-        <v>0.18234132032211059</v>
+        <v>0.185</v>
       </c>
       <c r="T43" s="9">
-        <f t="shared" si="27"/>
-        <v>0.18626186152707927</v>
+        <v>0.185</v>
       </c>
       <c r="U43" s="9">
-        <f t="shared" si="27"/>
-        <v>0.18702844908387831</v>
+        <v>0.185</v>
       </c>
       <c r="V43" s="9">
-        <f t="shared" si="27"/>
-        <v>0.18759096337517306</v>
+        <v>0.185</v>
       </c>
       <c r="Z43" s="9">
         <f>Z33/Z28</f>
@@ -5214,21 +5258,25 @@
         <f>AB33/AB28</f>
         <v>0.16748577340920848</v>
       </c>
+      <c r="AC43" s="9">
+        <f>AC33/AC28</f>
+        <v>0.183404057672404</v>
+      </c>
       <c r="AD43" s="49" t="s">
         <v>103</v>
       </c>
       <c r="AE43" s="50">
         <f>NPV(AE42,AC38:EL38)+Main!L5-Main!L6</f>
-        <v>111202.19519054302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:142" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>128107.24670270545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:142" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:O44" si="28">C37/C36</f>
+        <f t="shared" ref="C44:P44" si="28">C37/C36</f>
         <v>0.14684014869888476</v>
       </c>
       <c r="D44" s="9">
@@ -5280,24 +5328,14 @@
         <v>0.18881856540084388</v>
       </c>
       <c r="P44" s="9">
-        <v>0.16</v>
+        <f t="shared" si="28"/>
+        <v>0.16806020066889632</v>
       </c>
       <c r="Q44" s="9">
-        <v>0.16</v>
+        <f t="shared" ref="Q44" si="29">Q37/Q36</f>
+        <v>0.16029900332225913</v>
       </c>
       <c r="R44" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="S44" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="T44" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="U44" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="V44" s="9">
         <v>0.16</v>
       </c>
       <c r="Z44" s="9">
@@ -5317,93 +5355,88 @@
       </c>
       <c r="AE44" s="51">
         <f>AE43/Model!O40</f>
-        <v>276.69120475377713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:142" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>318.75403509008572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:142" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" ref="C45:V45" si="29">C38/C28</f>
+        <f t="shared" ref="C45:P45" si="30">C38/C28</f>
         <v>9.7826086956521743E-2</v>
       </c>
       <c r="D45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9.7027804410354745E-2</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.640666260410319E-3</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.11483951646519383</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.10179640718562874</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9.9769762087490402E-2</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.1142480707698099</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15267459138187223</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.11252963706000364</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.12683259461302421</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15170068027210884</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.1625607507960449</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.12939592798250041</v>
       </c>
       <c r="P45" s="9">
-        <f t="shared" si="29"/>
-        <v>0.15066751399032532</v>
+        <f t="shared" si="30"/>
+        <v>0.15669291338582678</v>
       </c>
       <c r="Q45" s="9">
-        <f t="shared" si="29"/>
-        <v>0.1519490319762492</v>
+        <f t="shared" ref="Q45" si="31">Q38/Q28</f>
+        <v>0.15933806146572105</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="29"/>
-        <v>0.15275904106319554</v>
+        <v>0.15</v>
       </c>
       <c r="S45" s="9">
-        <f t="shared" si="29"/>
-        <v>0.15316670907057289</v>
+        <v>0.15</v>
       </c>
       <c r="T45" s="9">
-        <f t="shared" si="29"/>
-        <v>0.15645996368274659</v>
+        <v>0.15</v>
       </c>
       <c r="U45" s="9">
-        <f t="shared" si="29"/>
-        <v>0.15710389723045776</v>
+        <v>0.15</v>
       </c>
       <c r="V45" s="9">
-        <f t="shared" si="29"/>
-        <v>0.15757640923514538</v>
+        <v>0.15</v>
       </c>
       <c r="Z45" s="9">
         <f>Z38/Z28</f>
@@ -5422,77 +5455,72 @@
       </c>
       <c r="AE45" s="49">
         <f>AE44/Main!L2-1</f>
-        <v>-0.16215114839578149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:142" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-4.8495417641535199E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:142" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11">
-        <f t="shared" ref="G46:V46" si="30">G28/C28-1</f>
+        <f t="shared" ref="G46:Q46" si="32">G28/C28-1</f>
         <v>3.2182438192668306E-2</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-5.7526366251203775E-4</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.9219987812309656E-2</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.12213422259274709</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.13214949411521792</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.12547966231772834</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.10671936758893286</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.10828380386329872</v>
       </c>
       <c r="O46" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8.3895677548787129E-2</v>
       </c>
       <c r="P46" s="11">
-        <f t="shared" si="30"/>
-        <v>7.8383907262189023E-2</v>
+        <f t="shared" si="32"/>
+        <v>8.2509376065462048E-2</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="30"/>
-        <v>0.102604081632653</v>
+        <f t="shared" si="32"/>
+        <v>7.9081632653061229E-2</v>
       </c>
       <c r="R46" s="11">
-        <f t="shared" si="30"/>
-        <v>0.11043711077593432</v>
+        <v>0.08</v>
       </c>
       <c r="S46" s="11">
-        <f t="shared" si="30"/>
-        <v>0.12399424613831411</v>
+        <v>0.09</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" si="30"/>
-        <v>0.11026093256694813</v>
+        <v>0.09</v>
       </c>
       <c r="U46" s="11">
-        <f t="shared" si="30"/>
-        <v>0.11121512883795193</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="V46" s="11">
-        <f t="shared" si="30"/>
-        <v>9.9738212687546124E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AA46" s="11">
         <f>AA28/Z28-1</f>
@@ -5502,39 +5530,57 @@
         <f>AB28/AA28-1</f>
         <v>0.11777178103315333</v>
       </c>
-    </row>
-    <row r="47" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="AC46" s="11">
+        <f>AC28/AB28-1</f>
+        <v>8.1322641834799203E-2</v>
+      </c>
+      <c r="AD46" s="11">
+        <f>AD28/AC28-1</f>
+        <v>8.745052698390432E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:142" x14ac:dyDescent="0.25">
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="1:142" x14ac:dyDescent="0.25">
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P48"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K49" s="1">
-        <f>K50-K61</f>
+        <f t="shared" ref="K49:Q49" si="33">K50-K61</f>
         <v>-8272</v>
       </c>
       <c r="L49" s="1">
-        <f>L50-L61</f>
+        <f t="shared" si="33"/>
         <v>-7970</v>
       </c>
       <c r="M49" s="1">
-        <f>M50-M61</f>
+        <f t="shared" si="33"/>
         <v>-7243</v>
       </c>
       <c r="N49" s="1">
-        <f>N50-N61</f>
+        <f t="shared" si="33"/>
         <v>-6660</v>
       </c>
       <c r="O49" s="1">
-        <f>O50-O61</f>
+        <f t="shared" si="33"/>
         <v>-6745</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P49" s="1">
+        <f t="shared" si="33"/>
+        <v>-7056</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="33"/>
+        <v>-7401</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
@@ -5558,8 +5604,16 @@
         <f>473+1969</f>
         <v>2442</v>
       </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P50" s="1">
+        <f>540+2241</f>
+        <v>2781</v>
+      </c>
+      <c r="Q50" s="1">
+        <f>473+1521</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>27</v>
       </c>
@@ -5578,8 +5632,14 @@
       <c r="O51" s="1">
         <v>4674</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P51" s="1">
+        <v>4861</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>29</v>
       </c>
@@ -5598,8 +5658,14 @@
       <c r="O52" s="1">
         <v>3868</v>
       </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P52" s="1">
+        <v>3963</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
@@ -5618,8 +5684,14 @@
       <c r="O53" s="1">
         <v>870</v>
       </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P53" s="1">
+        <v>1046</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>30</v>
       </c>
@@ -5638,8 +5710,14 @@
       <c r="O54" s="1">
         <v>3558</v>
       </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P54" s="1">
+        <v>3604</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>31</v>
       </c>
@@ -5663,37 +5741,53 @@
         <f>14877+4975+722+481+2070</f>
         <v>23125</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P55" s="1">
+        <f>14849+4883+785+499+2110</f>
+        <v>23126</v>
+      </c>
+      <c r="Q55">
+        <f>15044+4809+817+549+2154</f>
+        <v>23373</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="K56" s="1">
-        <f>SUM(K50:K55)</f>
+        <f t="shared" ref="K56:Q56" si="34">SUM(K50:K55)</f>
         <v>35519</v>
       </c>
       <c r="L56" s="1">
-        <f>SUM(L50:L55)</f>
+        <f t="shared" si="34"/>
         <v>36773</v>
       </c>
       <c r="M56" s="1">
-        <f>SUM(M50:M55)</f>
+        <f t="shared" si="34"/>
         <v>37288</v>
       </c>
       <c r="N56" s="1">
-        <f>SUM(N50:N55)</f>
+        <f t="shared" si="34"/>
         <v>38430</v>
       </c>
       <c r="O56" s="1">
-        <f>SUM(O50:O55)</f>
+        <f t="shared" si="34"/>
         <v>38537</v>
       </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P56" s="1">
+        <f t="shared" si="34"/>
+        <v>39381</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="34"/>
+        <v>39236</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>34</v>
       </c>
@@ -5712,8 +5806,14 @@
       <c r="O58" s="1">
         <v>3400</v>
       </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P58" s="1">
+        <v>3497</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>35</v>
       </c>
@@ -5732,8 +5832,14 @@
       <c r="O59" s="1">
         <v>492</v>
       </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P59" s="1">
+        <v>529</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>36</v>
       </c>
@@ -5752,8 +5858,14 @@
       <c r="O60" s="1">
         <v>2726</v>
       </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P60" s="1">
+        <v>2812</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>4</v>
       </c>
@@ -5777,8 +5889,16 @@
         <f>1+994+8192</f>
         <v>9187</v>
       </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P61" s="1">
+        <f>4+1278+8555</f>
+        <v>9837</v>
+      </c>
+      <c r="Q61">
+        <f>3+714+8678</f>
+        <v>9395</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>37</v>
       </c>
@@ -5802,8 +5922,16 @@
         <f>730+177</f>
         <v>907</v>
       </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P62" s="1">
+        <f>175+709</f>
+        <v>884</v>
+      </c>
+      <c r="Q62">
+        <f>709+174</f>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>38</v>
       </c>
@@ -5822,8 +5950,14 @@
       <c r="O63" s="1">
         <v>419</v>
       </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P63" s="1">
+        <v>429</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>39</v>
       </c>
@@ -5847,8 +5981,16 @@
         <f>1478+601</f>
         <v>2079</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="1">
+        <f>656+1484</f>
+        <v>2140</v>
+      </c>
+      <c r="Q64">
+        <f>1503+681</f>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>40</v>
       </c>
@@ -5867,64 +6009,86 @@
       <c r="O65" s="1">
         <v>19292</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P65" s="1">
+        <v>19254</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>19117</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K66" s="1">
-        <f>SUM(K58:K65)</f>
+        <f t="shared" ref="K66:Q66" si="35">SUM(K58:K65)</f>
         <v>35518</v>
       </c>
       <c r="L66" s="1">
-        <f>SUM(L58:L65)</f>
+        <f t="shared" si="35"/>
         <v>36772</v>
       </c>
       <c r="M66" s="1">
-        <f>SUM(M58:M65)</f>
+        <f t="shared" si="35"/>
         <v>37288</v>
       </c>
       <c r="N66" s="1">
-        <f>SUM(N58:N65)</f>
+        <f t="shared" si="35"/>
         <v>38431</v>
       </c>
       <c r="O66" s="1">
-        <f>SUM(O58:O65)</f>
+        <f t="shared" si="35"/>
         <v>38502</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P66" s="1">
+        <f t="shared" si="35"/>
+        <v>39382</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="35"/>
+        <v>39190</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K69" s="1">
-        <f>K38</f>
+        <f t="shared" ref="K69:Q69" si="36">K38</f>
         <v>617</v>
       </c>
       <c r="L69" s="1">
-        <f>L38</f>
+        <f t="shared" si="36"/>
         <v>744</v>
       </c>
       <c r="M69" s="1">
-        <f>M38</f>
+        <f t="shared" si="36"/>
         <v>892</v>
       </c>
       <c r="N69" s="1">
-        <f>N38</f>
+        <f t="shared" si="36"/>
         <v>970</v>
       </c>
       <c r="O69" s="1">
-        <f>O38</f>
+        <f t="shared" si="36"/>
         <v>769</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P69" s="1">
+        <f t="shared" si="36"/>
+        <v>995</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="36"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>43</v>
       </c>
@@ -5946,8 +6110,16 @@
       <c r="O70" s="1">
         <v>822</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P70" s="1">
+        <f>1816-O70</f>
+        <v>994</v>
+      </c>
+      <c r="Q70" s="1">
+        <f>2827-P70-O70</f>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>44</v>
       </c>
@@ -5970,8 +6142,16 @@
         <f>225</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P71" s="1">
+        <f>452-O71</f>
+        <v>227</v>
+      </c>
+      <c r="Q71" s="1">
+        <f>687-P71-O71</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>38</v>
       </c>
@@ -5993,8 +6173,16 @@
       <c r="O72" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P72" s="1">
+        <f>9-O72</f>
+        <v>-23</v>
+      </c>
+      <c r="Q72" s="1">
+        <f>-88-P72-O72</f>
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>37</v>
       </c>
@@ -6018,8 +6206,16 @@
         <f>4-46-4</f>
         <v>-46</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P73" s="1">
+        <f>11-64-8-O73</f>
+        <v>-15</v>
+      </c>
+      <c r="Q73" s="1">
+        <f>18-89-13-P73-O73</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>45</v>
       </c>
@@ -6041,8 +6237,16 @@
       <c r="O74" s="1">
         <v>-524</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P74" s="1">
+        <f>-784-O74</f>
+        <v>-260</v>
+      </c>
+      <c r="Q74" s="1">
+        <f>-657-P74-O74</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>19</v>
       </c>
@@ -6064,37 +6268,53 @@
       <c r="O75" s="1">
         <v>-34</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P75" s="1">
+        <f>-11-O75</f>
+        <v>23</v>
+      </c>
+      <c r="Q75" s="1">
+        <f>45-P75-O75</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K76" s="1">
-        <f>SUM(K70:K75)</f>
+        <f t="shared" ref="K76:Q76" si="37">SUM(K70:K75)</f>
         <v>335</v>
       </c>
       <c r="L76" s="1">
-        <f>SUM(L70:L75)</f>
+        <f t="shared" si="37"/>
         <v>850</v>
       </c>
       <c r="M76" s="1">
-        <f>SUM(M70:M75)</f>
+        <f t="shared" si="37"/>
         <v>1141</v>
       </c>
       <c r="N76" s="1">
-        <f>SUM(N70:N75)</f>
+        <f t="shared" si="37"/>
         <v>1298</v>
       </c>
       <c r="O76" s="1">
-        <f>SUM(O70:O75)</f>
+        <f t="shared" si="37"/>
         <v>475</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P76" s="1">
+        <f t="shared" si="37"/>
+        <v>946</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="37"/>
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>47</v>
       </c>
@@ -6117,8 +6337,16 @@
         <f>+-183+58</f>
         <v>-125</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P78" s="1">
+        <f>-370+77-51-O78</f>
+        <v>-219</v>
+      </c>
+      <c r="Q78" s="1">
+        <f>-533+84-50-P78-O78</f>
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>48</v>
       </c>
@@ -6142,8 +6370,16 @@
         <f>150+11</f>
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P79" s="1">
+        <f>-68+33-126-O79</f>
+        <v>-322</v>
+      </c>
+      <c r="Q79" s="1">
+        <f>68+33+595-P79-O79</f>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>19</v>
       </c>
@@ -6165,37 +6401,53 @@
       <c r="O80" s="1">
         <v>-3</v>
       </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P80" s="1">
+        <f>1-7-O80</f>
+        <v>-3</v>
+      </c>
+      <c r="Q80" s="1">
+        <f>-14-27-P80-O80</f>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K81" s="1">
-        <f>SUM(K78:K80)</f>
+        <f t="shared" ref="K81:Q81" si="38">SUM(K78:K80)</f>
         <v>-123</v>
       </c>
       <c r="L81" s="1">
-        <f>SUM(L78:L80)</f>
+        <f t="shared" si="38"/>
         <v>-907</v>
       </c>
       <c r="M81" s="1">
-        <f>SUM(M78:M80)</f>
+        <f t="shared" si="38"/>
         <v>-752</v>
       </c>
       <c r="N81" s="1">
-        <f>SUM(N78:N80)</f>
+        <f t="shared" si="38"/>
         <v>-792</v>
       </c>
       <c r="O81" s="1">
-        <f>SUM(O78:O80)</f>
+        <f t="shared" si="38"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P81" s="1">
+        <f t="shared" si="38"/>
+        <v>-544</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="38"/>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6219,8 +6471,16 @@
         <f>+-4-7</f>
         <v>-11</v>
       </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P83" s="1">
+        <f>1084-399-4-O83</f>
+        <v>692</v>
+      </c>
+      <c r="Q83" s="1">
+        <f>1084-1011-6-P83-O83</f>
+        <v>-614</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>50</v>
       </c>
@@ -6242,8 +6502,16 @@
       <c r="O84" s="1">
         <v>-368</v>
       </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P84" s="1">
+        <f>-756-O84</f>
+        <v>-388</v>
+      </c>
+      <c r="Q84" s="1">
+        <f>-1130-P84-O84</f>
+        <v>-374</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>51</v>
       </c>
@@ -6265,8 +6533,16 @@
       <c r="O85" s="1">
         <v>-138</v>
       </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P85" s="1">
+        <f>-738-O85</f>
+        <v>-600</v>
+      </c>
+      <c r="Q85" s="1">
+        <f>-1615-P85-O85</f>
+        <v>-877</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>52</v>
       </c>
@@ -6290,8 +6566,16 @@
         <f>41-56</f>
         <v>-15</v>
       </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P86" s="1">
+        <f>46-63-O86</f>
+        <v>-2</v>
+      </c>
+      <c r="Q86" s="1">
+        <f>54-67-P86-O86</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>19</v>
       </c>
@@ -6313,63 +6597,88 @@
       <c r="O87" s="1">
         <v>-4</v>
       </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P87" s="1">
+        <f>-8-O87</f>
+        <v>-4</v>
+      </c>
+      <c r="Q87" s="1">
+        <f>-1-P87-O87</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K88" s="1">
-        <f>SUM(K83:K87)</f>
+        <f t="shared" ref="K88:Q88" si="39">SUM(K83:K87)</f>
         <v>-279</v>
       </c>
       <c r="L88" s="1">
-        <f>SUM(L83:L87)</f>
+        <f t="shared" si="39"/>
         <v>167</v>
       </c>
       <c r="M88" s="1">
-        <f>SUM(M83:M87)</f>
+        <f t="shared" si="39"/>
         <v>-396</v>
       </c>
       <c r="N88" s="1">
-        <f>SUM(N83:N87)</f>
+        <f t="shared" si="39"/>
         <v>-363</v>
       </c>
       <c r="O88" s="1">
-        <f>SUM(O83:O87)+13</f>
-        <v>-523</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="39"/>
+        <v>-536</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="39"/>
+        <v>-302</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="39"/>
+        <v>-1854</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>54</v>
       </c>
       <c r="K90" s="1">
-        <f>+K88+K81+K76</f>
+        <f t="shared" ref="K90:Q90" si="40">+K88+K81+K76</f>
         <v>-67</v>
       </c>
       <c r="L90" s="1">
-        <f>+L88+L81+L76</f>
+        <f t="shared" si="40"/>
         <v>110</v>
       </c>
       <c r="M90" s="1">
-        <f>+M88+M81+M76</f>
+        <f t="shared" si="40"/>
         <v>-7</v>
       </c>
       <c r="N90" s="1">
-        <f>+N88+N81+N76</f>
+        <f t="shared" si="40"/>
         <v>143</v>
       </c>
       <c r="O90" s="1">
-        <f>+O88+O81+O76</f>
-        <v>-15</v>
+        <f t="shared" si="40"/>
+        <v>-28</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="40"/>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>